--- a/data/tf-idf.xlsx
+++ b/data/tf-idf.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\לימודים\סמסטר 9\אחזור מידע\אתר\SITE\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\גיבוי\בראודה\סמסטר 9\אחזור מידע\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93428BF9-4CC4-473C-85E4-D992CDD8E3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1896542-7EA7-4A7A-9DCC-DA4AB179251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9184C1E3-A8B3-44A9-B9FF-515436DDD843}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TF-IDF" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -95,14 +106,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +174,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -173,39 +184,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -238,9 +249,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -273,6 +301,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -334,13 +379,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -349,6 +387,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -413,27 +458,45 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9ED4F4-D89C-487D-A2AE-6378405E3902}">
   <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:E361"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -458,16 +521,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3.2786885245901641E-2</v>
       </c>
       <c r="D2">
         <v>0.98082925301172619</v>
       </c>
       <c r="E2">
-        <v>1.9616585060234519</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.2158336164318888E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -475,16 +538,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.098901098901099E-2</v>
       </c>
       <c r="D3">
         <v>0.98082925301172619</v>
       </c>
       <c r="E3">
-        <v>0.98082925301172619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.07783434396893E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -492,16 +555,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.388888888888889E-2</v>
       </c>
       <c r="D4">
         <v>0.98082925301172619</v>
       </c>
       <c r="E4">
-        <v>0.98082925301172619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.362262851405175E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -509,16 +572,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>0.08</v>
       </c>
       <c r="D5">
         <v>0.98082925301172619</v>
       </c>
       <c r="E5">
-        <v>5.8849755180703571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.8466340240938098E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -526,16 +589,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>2.4390243902439029E-2</v>
       </c>
       <c r="D6">
         <v>0.98082925301172619</v>
       </c>
       <c r="E6">
-        <v>1.9616585060234519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.392266470760308E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -543,16 +606,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6.0240963855421693E-2</v>
       </c>
       <c r="D7">
         <v>0.98082925301172619</v>
       </c>
       <c r="E7">
-        <v>4.9041462650586309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.9086099579019648E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -560,16 +623,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>2.9850746268656719E-2</v>
       </c>
       <c r="D8">
         <v>0.98082925301172619</v>
       </c>
       <c r="E8">
-        <v>1.9616585060234519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.927848516452914E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -586,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -594,16 +657,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="D10">
         <v>0.98082925301172619</v>
       </c>
       <c r="E10">
-        <v>0.98082925301172619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.3436017164544191E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -611,16 +674,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4.0540540540540543E-2</v>
       </c>
       <c r="D11">
         <v>0.98082925301172619</v>
       </c>
       <c r="E11">
-        <v>2.942487759035179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.9763348095069977E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -637,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -654,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -671,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -688,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -705,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -722,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -739,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -756,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -773,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -790,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -807,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -824,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -841,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -858,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -866,16 +929,16 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>4.9180327868852458E-2</v>
       </c>
       <c r="D26">
         <v>1.386294361119891</v>
       </c>
       <c r="E26">
-        <v>4.1588830833596706</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.817841120261757E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -892,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -909,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -926,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -943,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -951,16 +1014,16 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>1.204819277108434E-2</v>
       </c>
       <c r="D31">
         <v>1.386294361119891</v>
       </c>
       <c r="E31">
-        <v>1.386294361119891</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.670234170023965E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -968,16 +1031,16 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>1.492537313432836E-2</v>
       </c>
       <c r="D32">
         <v>1.386294361119891</v>
       </c>
       <c r="E32">
-        <v>1.386294361119891</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.0690960613729711E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -985,16 +1048,16 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="D33">
         <v>1.386294361119891</v>
       </c>
       <c r="E33">
-        <v>6.9314718055994531</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1100233619936421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1002,16 +1065,16 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="D34">
         <v>1.386294361119891</v>
       </c>
       <c r="E34">
-        <v>4.1588830833596706</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.6971001141913308E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1019,16 +1082,16 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>1.3513513513513511E-2</v>
       </c>
       <c r="D35">
         <v>1.386294361119891</v>
       </c>
       <c r="E35">
-        <v>1.386294361119891</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.873370758270123E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1045,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1079,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1096,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1113,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1130,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1147,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1181,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1198,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1215,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1232,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1249,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1266,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1274,16 +1337,16 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>3.2786885245901641E-2</v>
       </c>
       <c r="D50">
         <v>0.98082925301172619</v>
       </c>
       <c r="E50">
-        <v>1.9616585060234519</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.2158336164318888E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1308,16 +1371,16 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>2.777777777777778E-2</v>
       </c>
       <c r="D52">
         <v>0.98082925301172619</v>
       </c>
       <c r="E52">
-        <v>1.9616585060234519</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.7245257028103501E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1325,16 +1388,16 @@
         <v>4</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>0.04</v>
       </c>
       <c r="D53">
         <v>0.98082925301172619</v>
       </c>
       <c r="E53">
-        <v>2.942487759035179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.9233170120469049E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1342,16 +1405,16 @@
         <v>5</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>3.6585365853658527E-2</v>
       </c>
       <c r="D54">
         <v>0.98082925301172619</v>
       </c>
       <c r="E54">
-        <v>2.942487759035179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.5883997061404611E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1368,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1385,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1393,16 +1456,16 @@
         <v>8</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>3.1746031746031737E-2</v>
       </c>
       <c r="D57">
         <v>0.98082925301172619</v>
       </c>
       <c r="E57">
-        <v>1.9616585060234519</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.1137436603546859E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1410,16 +1473,16 @@
         <v>9</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="D58">
         <v>0.98082925301172619</v>
       </c>
       <c r="E58">
-        <v>2.942487759035179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.0308051493632577E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -1427,16 +1490,16 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>1.3513513513513511E-2</v>
       </c>
       <c r="D59">
         <v>0.98082925301172619</v>
       </c>
       <c r="E59">
-        <v>0.98082925301172619</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.3254449365023331E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -1444,16 +1507,16 @@
         <v>11</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>1.7241379310344831E-2</v>
       </c>
       <c r="D60">
         <v>0.98082925301172619</v>
       </c>
       <c r="E60">
-        <v>0.98082925301172619</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.6910849189857351E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1470,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1487,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1521,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1538,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -1555,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1572,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1589,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1606,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1623,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1640,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -1648,16 +1711,16 @@
         <v>23</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>1.136363636363636E-2</v>
       </c>
       <c r="D72">
         <v>0.98082925301172619</v>
       </c>
       <c r="E72">
-        <v>0.98082925301172619</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.1145786966042339E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -1674,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -1682,16 +1745,16 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>8.1967213114754092E-2</v>
       </c>
       <c r="D74">
         <v>0.78015855754957497</v>
       </c>
       <c r="E74">
-        <v>3.900792787747875</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.3947422749965163E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -1699,16 +1762,16 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>1.098901098901099E-2</v>
       </c>
       <c r="D75">
         <v>0.78015855754957497</v>
       </c>
       <c r="E75">
-        <v>0.78015855754957497</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.5731709620832427E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -1716,16 +1779,16 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>2.777777777777778E-2</v>
       </c>
       <c r="D76">
         <v>0.78015855754957497</v>
       </c>
       <c r="E76">
-        <v>1.5603171150991499</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.1671071043043749E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -1733,16 +1796,16 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="D77">
         <v>0.78015855754957497</v>
       </c>
       <c r="E77">
-        <v>1.5603171150991499</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.0804228201322002E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -1750,16 +1813,16 @@
         <v>5</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>3.6585365853658527E-2</v>
       </c>
       <c r="D78">
         <v>0.78015855754957497</v>
       </c>
       <c r="E78">
-        <v>2.3404756726487248</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.8542386251813719E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -1767,16 +1830,16 @@
         <v>6</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>3.614457831325301E-2</v>
       </c>
       <c r="D79">
         <v>0.78015855754957497</v>
       </c>
       <c r="E79">
-        <v>2.3404756726487248</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.8198502080105121E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -1784,16 +1847,16 @@
         <v>7</v>
       </c>
       <c r="C80">
-        <v>10</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="D80">
         <v>0.78015855754957497</v>
       </c>
       <c r="E80">
-        <v>7.8015855754957499</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1164415757536679</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -1801,16 +1864,16 @@
         <v>8</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>6.3492063492063489E-2</v>
       </c>
       <c r="D81">
         <v>0.78015855754957497</v>
       </c>
       <c r="E81">
-        <v>3.1206342301982999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.9533876669814278E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -1818,16 +1881,16 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>6.8493150684931503E-2</v>
       </c>
       <c r="D82">
         <v>0.78015855754957497</v>
       </c>
       <c r="E82">
-        <v>3.900792787747875</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.3435517640381847E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -1835,16 +1898,16 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>6.7567567567567571E-2</v>
       </c>
       <c r="D83">
         <v>0.78015855754957497</v>
       </c>
       <c r="E83">
-        <v>3.900792787747875</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.2713416050646958E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -1861,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -1878,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -1886,16 +1949,16 @@
         <v>13</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>1.428571428571429E-2</v>
       </c>
       <c r="D86">
         <v>0.78015855754957497</v>
       </c>
       <c r="E86">
-        <v>0.78015855754957497</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.114512225070821E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -1912,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -1929,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -1946,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -1963,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -1980,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -1997,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2014,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2031,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2048,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -2065,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -2082,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -2099,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -2107,16 +2170,16 @@
         <v>2</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>1.098901098901099E-2</v>
       </c>
       <c r="D99">
         <v>0.69314718055994529</v>
       </c>
       <c r="E99">
-        <v>0.69314718055994529</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.6170019841752239E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -2124,16 +2187,16 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>1.388888888888889E-2</v>
       </c>
       <c r="D100">
         <v>0.69314718055994529</v>
       </c>
       <c r="E100">
-        <v>0.69314718055994529</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.6270441744436847E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -2150,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -2167,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -2175,16 +2238,16 @@
         <v>6</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>1.204819277108434E-2</v>
       </c>
       <c r="D103">
         <v>0.69314718055994529</v>
       </c>
       <c r="E103">
-        <v>0.69314718055994529</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.3511708501198233E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -2192,16 +2255,16 @@
         <v>7</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>1.492537313432836E-2</v>
       </c>
       <c r="D104">
         <v>0.69314718055994529</v>
       </c>
       <c r="E104">
-        <v>0.69314718055994529</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.0345480306864861E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -2209,16 +2272,16 @@
         <v>8</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>6.3492063492063489E-2</v>
       </c>
       <c r="D105">
         <v>0.69314718055994529</v>
       </c>
       <c r="E105">
-        <v>2.7725887222397811</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.4009344797456842E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -2226,16 +2289,16 @@
         <v>9</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="D106">
         <v>0.69314718055994529</v>
       </c>
       <c r="E106">
-        <v>0.69314718055994529</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.4951668569855513E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -2243,16 +2306,16 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>2.7027027027027029E-2</v>
       </c>
       <c r="D107">
         <v>0.69314718055994529</v>
       </c>
       <c r="E107">
-        <v>1.386294361119891</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.873370758270123E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -2269,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -2277,16 +2340,16 @@
         <v>12</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>1.6393442622950821E-2</v>
       </c>
       <c r="D109">
         <v>0.69314718055994529</v>
       </c>
       <c r="E109">
-        <v>0.69314718055994529</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.136306853376959E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -2303,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -2320,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -2337,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -2345,16 +2408,16 @@
         <v>16</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2.222222222222222E-2</v>
       </c>
       <c r="D113">
         <v>0.69314718055994529</v>
       </c>
       <c r="E113">
-        <v>0.69314718055994529</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.54032706791099E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -2362,16 +2425,16 @@
         <v>17</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>1.886792452830189E-2</v>
       </c>
       <c r="D114">
         <v>0.69314718055994529</v>
       </c>
       <c r="E114">
-        <v>0.69314718055994529</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.3078248689810289E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -2388,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -2396,16 +2459,16 @@
         <v>19</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>1.9230769230769228E-2</v>
       </c>
       <c r="D116">
         <v>0.69314718055994529</v>
       </c>
       <c r="E116">
-        <v>0.69314718055994529</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.332975347230664E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -2422,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -2439,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -2456,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -2464,16 +2527,16 @@
         <v>23</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>1.136363636363636E-2</v>
       </c>
       <c r="D120">
         <v>0.69314718055994529</v>
       </c>
       <c r="E120">
-        <v>0.69314718055994529</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.8766725063630152E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -2490,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -2498,16 +2561,16 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>1.6393442622950821E-2</v>
       </c>
       <c r="D122">
         <v>1.386294361119891</v>
       </c>
       <c r="E122">
-        <v>1.386294361119891</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.272613706753919E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -2515,16 +2578,16 @@
         <v>2</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>1.098901098901099E-2</v>
       </c>
       <c r="D123">
         <v>1.386294361119891</v>
       </c>
       <c r="E123">
-        <v>1.386294361119891</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.523400396835045E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -2541,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -2549,16 +2612,16 @@
         <v>4</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>0.04</v>
       </c>
       <c r="D125">
         <v>1.386294361119891</v>
       </c>
       <c r="E125">
-        <v>4.1588830833596706</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.5451774444795633E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -2575,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -2583,16 +2646,16 @@
         <v>6</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>6.0240963855421693E-2</v>
       </c>
       <c r="D127">
         <v>1.386294361119891</v>
       </c>
       <c r="E127">
-        <v>6.9314718055994531</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.3511708501198226E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -2609,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -2626,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -2643,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -2651,16 +2714,16 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>1.3513513513513511E-2</v>
       </c>
       <c r="D131">
         <v>1.386294361119891</v>
       </c>
       <c r="E131">
-        <v>1.386294361119891</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.873370758270123E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -2677,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -2694,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -2711,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -2728,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -2736,16 +2799,16 @@
         <v>15</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>4.2857142857142858E-2</v>
       </c>
       <c r="D136">
         <v>1.386294361119891</v>
       </c>
       <c r="E136">
-        <v>4.1588830833596706</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.9412615476566739E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -2762,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -2779,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -2796,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -2813,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -2830,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -2847,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -2864,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -2881,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -2898,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -2915,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -2923,16 +2986,16 @@
         <v>2</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>1.098901098901099E-2</v>
       </c>
       <c r="D147">
         <v>1.791759469228055</v>
       </c>
       <c r="E147">
-        <v>1.791759469228055</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.9689664497011591E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -2949,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -2966,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -2983,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -3000,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -3017,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -3034,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -3051,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -3068,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -3085,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -3102,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -3119,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -3136,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -3144,16 +3207,16 @@
         <v>15</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="D160">
         <v>1.791759469228055</v>
       </c>
       <c r="E160">
-        <v>3.5835189384561099</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.1193127692230139E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -3161,16 +3224,16 @@
         <v>16</v>
       </c>
       <c r="C161">
-        <v>6</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="D161">
         <v>1.791759469228055</v>
       </c>
       <c r="E161">
-        <v>10.750556815368331</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.2389012625637407</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -3178,16 +3241,16 @@
         <v>17</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>7.5471698113207544E-2</v>
       </c>
       <c r="D162">
         <v>1.791759469228055</v>
       </c>
       <c r="E162">
-        <v>7.1670378769122198</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.13522712975306081</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -3204,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -3221,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -3238,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -3255,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -3272,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -3289,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -3306,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>12</v>
       </c>
@@ -3323,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -3340,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -3348,16 +3411,16 @@
         <v>3</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>1.388888888888889E-2</v>
       </c>
       <c r="D172">
         <v>1.2321436812926321</v>
       </c>
       <c r="E172">
-        <v>1.2321436812926321</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.7113106684619891E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -3374,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>12</v>
       </c>
@@ -3391,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -3408,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -3425,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -3442,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -3459,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>12</v>
       </c>
@@ -3476,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -3493,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>12</v>
       </c>
@@ -3510,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>12</v>
       </c>
@@ -3527,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>12</v>
       </c>
@@ -3544,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>12</v>
       </c>
@@ -3561,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>12</v>
       </c>
@@ -3578,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>12</v>
       </c>
@@ -3595,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>12</v>
       </c>
@@ -3612,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -3620,16 +3683,16 @@
         <v>19</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>1.9230769230769228E-2</v>
       </c>
       <c r="D188">
         <v>1.2321436812926321</v>
       </c>
       <c r="E188">
-        <v>1.2321436812926321</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.3695070794089081E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -3637,16 +3700,16 @@
         <v>20</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="D189">
         <v>1.2321436812926321</v>
       </c>
       <c r="E189">
-        <v>2.464287362585265</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.7337687311897953E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>12</v>
       </c>
@@ -3654,16 +3717,16 @@
         <v>21</v>
       </c>
       <c r="C190">
-        <v>7</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="D190">
         <v>1.2321436812926321</v>
       </c>
       <c r="E190">
-        <v>8.6250057690484265</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1461865384584479</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>12</v>
       </c>
@@ -3671,16 +3734,16 @@
         <v>22</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>1.388888888888889E-2</v>
       </c>
       <c r="D191">
         <v>1.2321436812926321</v>
       </c>
       <c r="E191">
-        <v>1.2321436812926321</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.7113106684619891E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>12</v>
       </c>
@@ -3688,16 +3751,16 @@
         <v>23</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>1.136363636363636E-2</v>
       </c>
       <c r="D192">
         <v>1.2321436812926321</v>
       </c>
       <c r="E192">
-        <v>1.2321436812926321</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.400163274196173E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -3705,16 +3768,16 @@
         <v>24</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="D193">
         <v>1.2321436812926321</v>
       </c>
       <c r="E193">
-        <v>1.2321436812926321</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.925224502019738E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -3731,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -3748,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -3756,16 +3819,16 @@
         <v>3</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>2.777777777777778E-2</v>
       </c>
       <c r="D196">
         <v>1.2321436812926321</v>
       </c>
       <c r="E196">
-        <v>2.464287362585265</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.4226213369239783E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>13</v>
       </c>
@@ -3782,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -3799,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -3816,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -3833,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -3850,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -3858,16 +3921,16 @@
         <v>9</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="D202">
         <v>1.2321436812926321</v>
       </c>
       <c r="E202">
-        <v>1.2321436812926321</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.6878680565652501E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -3875,16 +3938,16 @@
         <v>10</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>1.3513513513513511E-2</v>
       </c>
       <c r="D203">
         <v>1.2321436812926321</v>
       </c>
       <c r="E203">
-        <v>1.2321436812926321</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.6650590287738271E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -3901,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -3918,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -3935,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -3952,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -3969,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>13</v>
       </c>
@@ -3986,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -4003,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -4020,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -4028,16 +4091,16 @@
         <v>19</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>5.7692307692307702E-2</v>
       </c>
       <c r="D212">
         <v>1.2321436812926321</v>
       </c>
       <c r="E212">
-        <v>3.6964310438778969</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.1085212382267254E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -4045,16 +4108,16 @@
         <v>20</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="D213">
         <v>1.2321436812926321</v>
       </c>
       <c r="E213">
-        <v>2.464287362585265</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.7337687311897953E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -4062,16 +4125,16 @@
         <v>21</v>
       </c>
       <c r="C214">
-        <v>5</v>
+        <v>8.4745762711864403E-2</v>
       </c>
       <c r="D214">
         <v>1.2321436812926321</v>
       </c>
       <c r="E214">
-        <v>6.160718406463161</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1044189560417485</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -4079,16 +4142,16 @@
         <v>22</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>1.388888888888889E-2</v>
       </c>
       <c r="D215">
         <v>1.2321436812926321</v>
       </c>
       <c r="E215">
-        <v>1.2321436812926321</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.7113106684619891E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -4105,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -4122,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>14</v>
       </c>
@@ -4139,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>14</v>
       </c>
@@ -4156,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>14</v>
       </c>
@@ -4173,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -4190,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -4207,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -4224,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -4232,16 +4295,16 @@
         <v>7</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>1.492537313432836E-2</v>
       </c>
       <c r="D224">
         <v>1.568615917913845</v>
       </c>
       <c r="E224">
-        <v>1.568615917913845</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.341217787931112E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -4258,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>14</v>
       </c>
@@ -4275,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -4292,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>14</v>
       </c>
@@ -4309,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>14</v>
       </c>
@@ -4326,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>14</v>
       </c>
@@ -4343,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>14</v>
       </c>
@@ -4360,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -4377,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>14</v>
       </c>
@@ -4394,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -4411,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -4428,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>14</v>
       </c>
@@ -4436,16 +4499,16 @@
         <v>19</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>1.9230769230769228E-2</v>
       </c>
       <c r="D236">
         <v>1.568615917913845</v>
       </c>
       <c r="E236">
-        <v>1.568615917913845</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.0165690729112411E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>14</v>
       </c>
@@ -4453,16 +4516,16 @@
         <v>20</v>
       </c>
       <c r="C237">
-        <v>8</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="D237">
         <v>1.568615917913845</v>
       </c>
       <c r="E237">
-        <v>12.54892734331076</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.19013526277743581</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>14</v>
       </c>
@@ -4470,16 +4533,16 @@
         <v>21</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>3.3898305084745763E-2</v>
       </c>
       <c r="D238">
         <v>1.568615917913845</v>
       </c>
       <c r="E238">
-        <v>3.1372318358276901</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.3173420946232043E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -4487,16 +4550,16 @@
         <v>22</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>1.388888888888889E-2</v>
       </c>
       <c r="D239">
         <v>1.568615917913845</v>
       </c>
       <c r="E239">
-        <v>1.568615917913845</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.178633219324785E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -4513,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>14</v>
       </c>
@@ -4530,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>15</v>
       </c>
@@ -4538,16 +4601,16 @@
         <v>1</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>1.6393442622950821E-2</v>
       </c>
       <c r="D242">
         <v>0.6131044728864089</v>
       </c>
       <c r="E242">
-        <v>0.6131044728864089</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.0050892998137851E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>15</v>
       </c>
@@ -4564,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>15</v>
       </c>
@@ -4572,16 +4635,16 @@
         <v>3</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>1.388888888888889E-2</v>
       </c>
       <c r="D244">
         <v>0.6131044728864089</v>
       </c>
       <c r="E244">
-        <v>0.6131044728864089</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.5153399012001234E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>15</v>
       </c>
@@ -4598,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>15</v>
       </c>
@@ -4606,16 +4669,16 @@
         <v>5</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>1.2195121951219509E-2</v>
       </c>
       <c r="D246">
         <v>0.6131044728864089</v>
       </c>
       <c r="E246">
-        <v>0.6131044728864089</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.4768838156879141E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>15</v>
       </c>
@@ -4632,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -4640,16 +4703,16 @@
         <v>7</v>
       </c>
       <c r="C248">
-        <v>5</v>
+        <v>7.4626865671641784E-2</v>
       </c>
       <c r="D248">
         <v>0.6131044728864089</v>
       </c>
       <c r="E248">
-        <v>3.0655223644320451</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.5754065140776783E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>15</v>
       </c>
@@ -4657,16 +4720,16 @@
         <v>8</v>
       </c>
       <c r="C249">
-        <v>3</v>
+        <v>4.7619047619047623E-2</v>
       </c>
       <c r="D249">
         <v>0.6131044728864089</v>
       </c>
       <c r="E249">
-        <v>1.839313418659227</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.9195451089828989E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>15</v>
       </c>
@@ -4674,16 +4737,16 @@
         <v>9</v>
       </c>
       <c r="C250">
-        <v>4</v>
+        <v>5.4794520547945202E-2</v>
       </c>
       <c r="D250">
         <v>0.6131044728864089</v>
       </c>
       <c r="E250">
-        <v>2.4524178915456361</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.3594765637611441E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>15</v>
       </c>
@@ -4700,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>15</v>
       </c>
@@ -4717,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>15</v>
       </c>
@@ -4734,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>15</v>
       </c>
@@ -4742,16 +4805,16 @@
         <v>13</v>
       </c>
       <c r="C254">
-        <v>2</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="D254">
         <v>0.6131044728864089</v>
       </c>
       <c r="E254">
-        <v>1.226208945772818</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.7517270653897399E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>15</v>
       </c>
@@ -4768,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>15</v>
       </c>
@@ -4776,16 +4839,16 @@
         <v>15</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>1.428571428571429E-2</v>
       </c>
       <c r="D256">
         <v>0.6131044728864089</v>
       </c>
       <c r="E256">
-        <v>0.6131044728864089</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.758635326948698E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>15</v>
       </c>
@@ -4802,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>15</v>
       </c>
@@ -4819,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>15</v>
       </c>
@@ -4836,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>15</v>
       </c>
@@ -4844,16 +4907,16 @@
         <v>19</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>1.9230769230769228E-2</v>
       </c>
       <c r="D260">
         <v>0.6131044728864089</v>
       </c>
       <c r="E260">
-        <v>0.6131044728864089</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.179047063243094E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>15</v>
       </c>
@@ -4861,16 +4924,16 @@
         <v>20</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>1.515151515151515E-2</v>
       </c>
       <c r="D261">
         <v>0.6131044728864089</v>
       </c>
       <c r="E261">
-        <v>0.6131044728864089</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.2894617104001351E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>15</v>
       </c>
@@ -4878,16 +4941,16 @@
         <v>21</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="D262">
         <v>0.6131044728864089</v>
       </c>
       <c r="E262">
-        <v>0.6131044728864089</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.039160123536286E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>15</v>
       </c>
@@ -4904,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>15</v>
       </c>
@@ -4912,16 +4975,16 @@
         <v>23</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>1.136363636363636E-2</v>
       </c>
       <c r="D264">
         <v>0.6131044728864089</v>
       </c>
       <c r="E264">
-        <v>0.6131044728864089</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.9670962828001009E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>15</v>
       </c>
@@ -4929,16 +4992,16 @@
         <v>24</v>
       </c>
       <c r="C265">
-        <v>4</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D265">
         <v>0.6131044728864089</v>
       </c>
       <c r="E265">
-        <v>2.4524178915456361</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.8319029555400563E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>16</v>
       </c>
@@ -4955,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -4972,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>16</v>
       </c>
@@ -4980,16 +5043,16 @@
         <v>3</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>1.388888888888889E-2</v>
       </c>
       <c r="D268">
         <v>1.568615917913845</v>
       </c>
       <c r="E268">
-        <v>1.568615917913845</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.178633219324785E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>16</v>
       </c>
@@ -4997,16 +5060,16 @@
         <v>4</v>
       </c>
       <c r="C269">
-        <v>3</v>
+        <v>0.04</v>
       </c>
       <c r="D269">
         <v>1.568615917913845</v>
       </c>
       <c r="E269">
-        <v>4.7058477537415353</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.2744636716553809E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -5014,16 +5077,16 @@
         <v>5</v>
       </c>
       <c r="C270">
-        <v>5</v>
+        <v>6.097560975609756E-2</v>
       </c>
       <c r="D270">
         <v>1.568615917913845</v>
       </c>
       <c r="E270">
-        <v>7.8430795895692267</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.5647312067917392E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>16</v>
       </c>
@@ -5040,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>16</v>
       </c>
@@ -5057,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>16</v>
       </c>
@@ -5074,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>16</v>
       </c>
@@ -5091,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>16</v>
       </c>
@@ -5108,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>16</v>
       </c>
@@ -5125,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>16</v>
       </c>
@@ -5133,16 +5196,16 @@
         <v>12</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>1.6393442622950821E-2</v>
       </c>
       <c r="D277">
         <v>1.568615917913845</v>
       </c>
       <c r="E277">
-        <v>1.568615917913845</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.5715015047767961E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>16</v>
       </c>
@@ -5159,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>16</v>
       </c>
@@ -5176,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>16</v>
       </c>
@@ -5193,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>16</v>
       </c>
@@ -5210,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>16</v>
       </c>
@@ -5227,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>16</v>
       </c>
@@ -5244,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>16</v>
       </c>
@@ -5261,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>16</v>
       </c>
@@ -5269,16 +5332,16 @@
         <v>20</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>1.515151515151515E-2</v>
       </c>
       <c r="D285">
         <v>1.568615917913845</v>
       </c>
       <c r="E285">
-        <v>1.568615917913845</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.3766907847179469E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>16</v>
       </c>
@@ -5295,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>16</v>
       </c>
@@ -5312,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>16</v>
       </c>
@@ -5329,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>16</v>
       </c>
@@ -5346,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>17</v>
       </c>
@@ -5354,16 +5417,16 @@
         <v>1</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>1.6393442622950821E-2</v>
       </c>
       <c r="D290">
         <v>1.386294361119891</v>
       </c>
       <c r="E290">
-        <v>1.386294361119891</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.272613706753919E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -5380,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>17</v>
       </c>
@@ -5397,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -5405,16 +5468,16 @@
         <v>4</v>
       </c>
       <c r="C293">
-        <v>6</v>
+        <v>0.08</v>
       </c>
       <c r="D293">
         <v>1.386294361119891</v>
       </c>
       <c r="E293">
-        <v>8.317766166719343</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.11090354888959129</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -5422,16 +5485,16 @@
         <v>5</v>
       </c>
       <c r="C294">
-        <v>2</v>
+        <v>2.4390243902439029E-2</v>
       </c>
       <c r="D294">
         <v>1.386294361119891</v>
       </c>
       <c r="E294">
-        <v>2.7725887222397811</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.3812057588290013E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>17</v>
       </c>
@@ -5439,16 +5502,16 @@
         <v>6</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>1.204819277108434E-2</v>
       </c>
       <c r="D295">
         <v>1.386294361119891</v>
       </c>
       <c r="E295">
-        <v>1.386294361119891</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.670234170023965E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -5456,16 +5519,16 @@
         <v>7</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>1.492537313432836E-2</v>
       </c>
       <c r="D296">
         <v>1.386294361119891</v>
       </c>
       <c r="E296">
-        <v>1.386294361119891</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.0690960613729711E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>17</v>
       </c>
@@ -5482,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>17</v>
       </c>
@@ -5490,16 +5553,16 @@
         <v>9</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="D298">
         <v>1.386294361119891</v>
       </c>
       <c r="E298">
-        <v>1.386294361119891</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.8990333713971099E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>17</v>
       </c>
@@ -5516,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>17</v>
       </c>
@@ -5533,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>17</v>
       </c>
@@ -5550,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -5567,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -5584,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>17</v>
       </c>
@@ -5601,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -5618,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -5635,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -5652,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>17</v>
       </c>
@@ -5669,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>17</v>
       </c>
@@ -5686,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -5703,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -5720,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -5737,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>17</v>
       </c>
@@ -5754,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>18</v>
       </c>
@@ -5771,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>18</v>
       </c>
@@ -5779,16 +5842,16 @@
         <v>2</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>1.098901098901099E-2</v>
       </c>
       <c r="D315">
         <v>1.09861228866811</v>
       </c>
       <c r="E315">
-        <v>1.09861228866811</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.207266251283637E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>18</v>
       </c>
@@ -5805,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>18</v>
       </c>
@@ -5822,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>18</v>
       </c>
@@ -5830,16 +5893,16 @@
         <v>5</v>
       </c>
       <c r="C318">
-        <v>3</v>
+        <v>3.6585365853658527E-2</v>
       </c>
       <c r="D318">
         <v>1.09861228866811</v>
       </c>
       <c r="E318">
-        <v>3.2958368660043291</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.0193132512247917E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>18</v>
       </c>
@@ -5847,16 +5910,16 @@
         <v>6</v>
       </c>
       <c r="C319">
-        <v>4</v>
+        <v>4.8192771084337352E-2</v>
       </c>
       <c r="D319">
         <v>1.09861228866811</v>
       </c>
       <c r="E319">
-        <v>4.3944491546724391</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.2945170538222161E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>18</v>
       </c>
@@ -5864,16 +5927,16 @@
         <v>7</v>
       </c>
       <c r="C320">
-        <v>2</v>
+        <v>2.9850746268656719E-2</v>
       </c>
       <c r="D320">
         <v>1.09861228866811</v>
       </c>
       <c r="E320">
-        <v>2.19722457733622</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.2794396676660002E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>18</v>
       </c>
@@ -5890,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>18</v>
       </c>
@@ -5907,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>18</v>
       </c>
@@ -5915,16 +5978,16 @@
         <v>10</v>
       </c>
       <c r="C323">
-        <v>2</v>
+        <v>2.7027027027027029E-2</v>
       </c>
       <c r="D323">
         <v>1.09861228866811</v>
       </c>
       <c r="E323">
-        <v>2.19722457733622</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.9692224018057021E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>18</v>
       </c>
@@ -5941,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>18</v>
       </c>
@@ -5958,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>18</v>
       </c>
@@ -5966,16 +6029,16 @@
         <v>13</v>
       </c>
       <c r="C326">
-        <v>2</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="D326">
         <v>1.09861228866811</v>
       </c>
       <c r="E326">
-        <v>2.19722457733622</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.1388922533374573E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>18</v>
       </c>
@@ -5992,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>18</v>
       </c>
@@ -6000,16 +6063,16 @@
         <v>15</v>
       </c>
       <c r="C328">
-        <v>2</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="D328">
         <v>1.09861228866811</v>
       </c>
       <c r="E328">
-        <v>2.19722457733622</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.1388922533374573E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>18</v>
       </c>
@@ -6026,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>18</v>
       </c>
@@ -6043,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>18</v>
       </c>
@@ -6060,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>18</v>
       </c>
@@ -6077,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>18</v>
       </c>
@@ -6094,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>18</v>
       </c>
@@ -6111,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>18</v>
       </c>
@@ -6119,16 +6182,16 @@
         <v>22</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>1.388888888888889E-2</v>
       </c>
       <c r="D335">
         <v>1.09861228866811</v>
       </c>
       <c r="E335">
-        <v>1.09861228866811</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.52585040092793E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>18</v>
       </c>
@@ -6145,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>18</v>
       </c>
@@ -6162,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>19</v>
       </c>
@@ -6179,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>19</v>
       </c>
@@ -6196,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>19</v>
       </c>
@@ -6213,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>19</v>
       </c>
@@ -6230,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>19</v>
       </c>
@@ -6238,16 +6301,16 @@
         <v>5</v>
       </c>
       <c r="C342">
-        <v>2</v>
+        <v>2.4390243902439029E-2</v>
       </c>
       <c r="D342">
         <v>0.98082925301172619</v>
       </c>
       <c r="E342">
-        <v>1.9616585060234519</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.392266470760308E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>19</v>
       </c>
@@ -6255,16 +6318,16 @@
         <v>6</v>
       </c>
       <c r="C343">
-        <v>2</v>
+        <v>2.4096385542168679E-2</v>
       </c>
       <c r="D343">
         <v>0.98082925301172619</v>
       </c>
       <c r="E343">
-        <v>1.9616585060234519</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.3634439831607859E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>19</v>
       </c>
@@ -6281,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>19</v>
       </c>
@@ -6298,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>19</v>
       </c>
@@ -6306,16 +6369,16 @@
         <v>9</v>
       </c>
       <c r="C346">
-        <v>2</v>
+        <v>2.7397260273972601E-2</v>
       </c>
       <c r="D346">
         <v>0.98082925301172619</v>
       </c>
       <c r="E346">
-        <v>1.9616585060234519</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.6872034329088391E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>19</v>
       </c>
@@ -6323,16 +6386,16 @@
         <v>10</v>
       </c>
       <c r="C347">
-        <v>1</v>
+        <v>1.3513513513513511E-2</v>
       </c>
       <c r="D347">
         <v>0.98082925301172619</v>
       </c>
       <c r="E347">
-        <v>0.98082925301172619</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.3254449365023331E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>19</v>
       </c>
@@ -6349,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>19</v>
       </c>
@@ -6366,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>19</v>
       </c>
@@ -6383,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>19</v>
       </c>
@@ -6400,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>19</v>
       </c>
@@ -6408,16 +6471,16 @@
         <v>15</v>
       </c>
       <c r="C352">
-        <v>1</v>
+        <v>1.428571428571429E-2</v>
       </c>
       <c r="D352">
         <v>0.98082925301172619</v>
       </c>
       <c r="E352">
-        <v>0.98082925301172619</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.401184647159609E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>19</v>
       </c>
@@ -6425,16 +6488,16 @@
         <v>16</v>
       </c>
       <c r="C353">
-        <v>1</v>
+        <v>2.222222222222222E-2</v>
       </c>
       <c r="D353">
         <v>0.98082925301172619</v>
       </c>
       <c r="E353">
-        <v>0.98082925301172619</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.17962056224828E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>19</v>
       </c>
@@ -6442,16 +6505,16 @@
         <v>17</v>
       </c>
       <c r="C354">
-        <v>1</v>
+        <v>1.886792452830189E-2</v>
       </c>
       <c r="D354">
         <v>0.98082925301172619</v>
       </c>
       <c r="E354">
-        <v>0.98082925301172619</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.8506212320975969E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>19</v>
       </c>
@@ -6468,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>19</v>
       </c>
@@ -6485,7 +6548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>19</v>
       </c>
@@ -6502,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>19</v>
       </c>
@@ -6510,16 +6573,16 @@
         <v>21</v>
       </c>
       <c r="C358">
-        <v>1</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="D358">
         <v>0.98082925301172619</v>
       </c>
       <c r="E358">
-        <v>0.98082925301172619</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.6624224627317389E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>19</v>
       </c>
@@ -6536,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>19</v>
       </c>
@@ -6544,16 +6607,16 @@
         <v>23</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <v>1.136363636363636E-2</v>
       </c>
       <c r="D360">
         <v>0.98082925301172619</v>
       </c>
       <c r="E360">
-        <v>0.98082925301172619</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.1145786966042339E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>19</v>
       </c>
@@ -6571,6 +6634,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>